--- a/output.xlsx
+++ b/output.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Эстафета9" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Эстафета10" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="TOTAL" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Финишный протокол" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -689,6 +690,745 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Эстафета1</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="K1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>04:01.00</t>
+        </is>
+      </c>
+      <c r="N1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Эстафета2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Эстафета3</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>04:01.00</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Эстафета4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>04:01.00</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Эстафета5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>04:01.00</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Эстафета6</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Эстафета7</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>04:01.00</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Эстафета8</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Эстафета9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>04:01.00</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Эстафета10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Школа 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Школа 4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>00:00.00</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Школа 2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>02:01.00</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Школа 3</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>03:01.00</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Школа 5</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>05:01.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
